--- a/dsmb_ccru_tables/category ByEvent EXAMPLE_STUDY  30OCT2020.xlsx
+++ b/dsmb_ccru_tables/category ByEvent EXAMPLE_STUDY  30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -20,46 +20,82 @@
     <t xml:space="preserve"># of events that have experienced the AE in this category</t>
   </si>
   <si>
-    <t xml:space="preserve">% of events in relation to the total events (N=100)</t>
+    <t xml:space="preserve">% of events in relation to the total events (N=348)</t>
   </si>
   <si>
     <t xml:space="preserve"># of events that were grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of events that this comprises of the total accrual (N=100)</t>
+    <t xml:space="preserve">% of events that this comprises of the total accrual (N=348)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60</t>
   </si>
   <si>
     <t xml:space="preserve">CARDIAC DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00</t>
+    <t xml:space="preserve"> 1.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAR AND LABYRINTH DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDOCRINE DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYE DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.44</t>
   </si>
   <si>
     <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">21.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
+    <t xml:space="preserve">13.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
   </si>
   <si>
     <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
   </si>
   <si>
-    <t xml:space="preserve">20.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve"> 7.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEPATOBILIARY DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMMUNE SYSTEM DISORDERS</t>
   </si>
   <si>
     <t xml:space="preserve">INFECTIONS AND INFESTATIONS</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.00</t>
+    <t xml:space="preserve"> 8.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89</t>
   </si>
   <si>
     <t xml:space="preserve">INJURY, POISONING AND PROCEDURAL COMPLICATIONS</t>
@@ -68,37 +104,61 @@
     <t xml:space="preserve">INVESTIGATIONS</t>
   </si>
   <si>
+    <t xml:space="preserve">21.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76</t>
+  </si>
+  <si>
     <t xml:space="preserve">METABOLISM AND NUTRITION DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.00</t>
+    <t xml:space="preserve"> 8.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44</t>
   </si>
   <si>
     <t xml:space="preserve">MUSCULOSKELETAL AND CONNECTIVE TISSUE DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">12.00</t>
+    <t xml:space="preserve"> 2.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEOPLASMS BENIGN, MALIGNANT AND UNSPECIFIED (INCL CYSTS AND POLYPS)</t>
   </si>
   <si>
     <t xml:space="preserve">NERVOUS SYSTEM DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.00</t>
+    <t xml:space="preserve"> 7.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01</t>
   </si>
   <si>
     <t xml:space="preserve">PSYCHIATRIC DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve">RENAL AND URINARY DISORDERS</t>
+  </si>
+  <si>
     <t xml:space="preserve">REPRODUCTIVE SYSTEM AND BREAST DISORDERS</t>
   </si>
   <si>
     <t xml:space="preserve">RESPIRATORY, THORACIC AND MEDIASTINAL DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">23.00</t>
+    <t xml:space="preserve"> 9.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45</t>
   </si>
   <si>
     <t xml:space="preserve">SKIN AND SUBCUTANEOUS TISSUE DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.02</t>
   </si>
   <si>
     <t xml:space="preserve">VASCULAR DISORDERS</t>
@@ -637,22 +697,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -677,13 +737,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>7</v>
@@ -694,13 +754,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>10</v>
@@ -711,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -720,193 +780,329 @@
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="8" t="n">
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>10</v>
       </c>
     </row>
